--- a/artfynd/A 20708-2025 artfynd.xlsx
+++ b/artfynd/A 20708-2025 artfynd.xlsx
@@ -4892,7 +4892,7 @@
         <v>130053404</v>
       </c>
       <c r="B45" t="n">
-        <v>99009</v>
+        <v>99013</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
